--- a/Code/Data/DAX30/Compared Returns/Auto Recurrence/input 30/DAX30_returns_compared_trimester.xlsx
+++ b/Code/Data/DAX30/Compared Returns/Auto Recurrence/input 30/DAX30_returns_compared_trimester.xlsx
@@ -501,13 +501,13 @@
         <v>0.04690428506837689</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0248222158922095</v>
+        <v>0.03020736901192043</v>
       </c>
       <c r="H2" t="n">
-        <v>-47.07900172441864</v>
+        <v>-35.59784789836527</v>
       </c>
       <c r="I2" t="n">
-        <v>46.07968030627706</v>
+        <v>44.97867762211805</v>
       </c>
     </row>
     <row r="3">
@@ -536,10 +536,10 @@
         <v>0.07240634976255141</v>
       </c>
       <c r="G3" t="n">
-        <v>0.08482882504103401</v>
+        <v>0.07836015995230651</v>
       </c>
       <c r="H3" t="n">
-        <v>17.15661032384692</v>
+        <v>8.222773567898347</v>
       </c>
       <c r="I3" t="inlineStr"/>
     </row>
@@ -569,10 +569,10 @@
         <v>0.05677872930236846</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02835954643623584</v>
+        <v>0.058736070513782</v>
       </c>
       <c r="H4" t="n">
-        <v>-50.05251652390739</v>
+        <v>3.447314223941064</v>
       </c>
       <c r="I4" t="inlineStr"/>
     </row>
@@ -602,10 +602,10 @@
         <v>0.01431410888443309</v>
       </c>
       <c r="G5" t="n">
-        <v>0.02716727458256508</v>
+        <v>0.006263741719587656</v>
       </c>
       <c r="H5" t="n">
-        <v>89.79368399321102</v>
+        <v>-56.24078473791957</v>
       </c>
       <c r="I5" t="inlineStr"/>
     </row>
@@ -635,10 +635,10 @@
         <v>-0.02406522563137596</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.006860418102175631</v>
+        <v>-0.03546415633128947</v>
       </c>
       <c r="H6" t="n">
-        <v>-71.49240066450449</v>
+        <v>-47.36681415133594</v>
       </c>
       <c r="I6" t="inlineStr"/>
     </row>
@@ -668,10 +668,10 @@
         <v>-0.03313782199633989</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.01491923271999716</v>
+        <v>-0.01598086122447592</v>
       </c>
       <c r="H7" t="n">
-        <v>-54.97823386930799</v>
+        <v>51.77455770556971</v>
       </c>
       <c r="I7" t="inlineStr"/>
     </row>
@@ -701,10 +701,10 @@
         <v>0.03132415382667915</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02592390065857389</v>
+        <v>-0.0006672623986604138</v>
       </c>
       <c r="H8" t="n">
-        <v>-17.2399011893046</v>
+        <v>-102.1301849121048</v>
       </c>
       <c r="I8" t="inlineStr"/>
     </row>
@@ -734,10 +734,10 @@
         <v>0.01634254468973803</v>
       </c>
       <c r="G9" t="n">
-        <v>0.04459807660272477</v>
+        <v>0.01485621053432185</v>
       </c>
       <c r="H9" t="n">
-        <v>172.895546253144</v>
+        <v>-9.094875881535719</v>
       </c>
       <c r="I9" t="inlineStr"/>
     </row>
@@ -767,10 +767,10 @@
         <v>-0.1585987240758367</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.1517457070916642</v>
+        <v>-0.1425439989117562</v>
       </c>
       <c r="H10" t="n">
-        <v>-4.320978635928745</v>
+        <v>10.12285896852717</v>
       </c>
       <c r="I10" t="inlineStr"/>
     </row>
@@ -800,10 +800,10 @@
         <v>-0.1624399880904878</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.1387331330306549</v>
+        <v>-0.139709914738958</v>
       </c>
       <c r="H11" t="n">
-        <v>-14.59422358897669</v>
+        <v>13.9929050837334</v>
       </c>
       <c r="I11" t="inlineStr"/>
     </row>
@@ -833,10 +833,10 @@
         <v>-0.06057036026101323</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.05699974314443462</v>
+        <v>-0.0688561304883855</v>
       </c>
       <c r="H12" t="n">
-        <v>-5.894990720200277</v>
+        <v>-13.67957890900229</v>
       </c>
       <c r="I12" t="inlineStr"/>
     </row>
@@ -866,10 +866,10 @@
         <v>-0.09595844735096801</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.09386872098241451</v>
+        <v>-0.07283712167510856</v>
       </c>
       <c r="H13" t="n">
-        <v>-2.177740914158729</v>
+        <v>24.09514358990533</v>
       </c>
       <c r="I13" t="inlineStr"/>
     </row>
@@ -899,10 +899,10 @@
         <v>-0.0880758363513635</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.05317641365057529</v>
+        <v>-0.07118687515795226</v>
       </c>
       <c r="H14" t="n">
-        <v>-39.62428759865865</v>
+        <v>19.17547637701175</v>
       </c>
       <c r="I14" t="inlineStr"/>
     </row>
@@ -932,10 +932,10 @@
         <v>-0.09854107075769501</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.08246508149364064</v>
+        <v>-0.05821005159810662</v>
       </c>
       <c r="H15" t="n">
-        <v>-16.31399896555215</v>
+        <v>40.92813164041956</v>
       </c>
       <c r="I15" t="inlineStr"/>
     </row>
@@ -965,10 +965,10 @@
         <v>-0.3086795035919008</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.2698649044177646</v>
+        <v>-0.3083479418859826</v>
       </c>
       <c r="H16" t="n">
-        <v>-12.57440119038554</v>
+        <v>0.1074129322031515</v>
       </c>
       <c r="I16" t="inlineStr"/>
     </row>
@@ -998,10 +998,10 @@
         <v>-0.3125468234095096</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.3727325556884341</v>
+        <v>-0.3196943790984516</v>
       </c>
       <c r="H17" t="n">
-        <v>19.25654902595733</v>
+        <v>-2.286875166725663</v>
       </c>
       <c r="I17" t="inlineStr"/>
     </row>
@@ -1031,10 +1031,10 @@
         <v>-0.1425913561743559</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.172313674897218</v>
+        <v>-0.1421855380878289</v>
       </c>
       <c r="H18" t="n">
-        <v>20.84440426144671</v>
+        <v>0.2846021648260093</v>
       </c>
       <c r="I18" t="inlineStr"/>
     </row>
@@ -1064,10 +1064,10 @@
         <v>-0.1550685811404286</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.1551229049371458</v>
+        <v>-0.1689700661047719</v>
       </c>
       <c r="H19" t="n">
-        <v>0.03503211051374739</v>
+        <v>-8.964733450262399</v>
       </c>
       <c r="I19" t="inlineStr"/>
     </row>
@@ -1097,10 +1097,10 @@
         <v>0.1418115268149177</v>
       </c>
       <c r="G20" t="n">
-        <v>0.1470667054506163</v>
+        <v>0.09514839324863539</v>
       </c>
       <c r="H20" t="n">
-        <v>3.705748576106412</v>
+        <v>-32.90503572899523</v>
       </c>
       <c r="I20" t="inlineStr"/>
     </row>
@@ -1130,10 +1130,10 @@
         <v>0.1848395652975698</v>
       </c>
       <c r="G21" t="n">
-        <v>0.211132790245821</v>
+        <v>0.2203453261839447</v>
       </c>
       <c r="H21" t="n">
-        <v>14.22489005853384</v>
+        <v>19.20896147381369</v>
       </c>
       <c r="I21" t="inlineStr"/>
     </row>
@@ -1163,10 +1163,10 @@
         <v>0.1839959105938305</v>
       </c>
       <c r="G22" t="n">
-        <v>0.1488708203228686</v>
+        <v>0.1494510109424549</v>
       </c>
       <c r="H22" t="n">
-        <v>-19.09014725251163</v>
+        <v>-18.77481925543074</v>
       </c>
       <c r="I22" t="inlineStr"/>
     </row>
@@ -1196,10 +1196,10 @@
         <v>0.167097082751942</v>
       </c>
       <c r="G23" t="n">
-        <v>0.1971934863473703</v>
+        <v>0.1724638361450775</v>
       </c>
       <c r="H23" t="n">
-        <v>18.01132796561556</v>
+        <v>3.211757682869018</v>
       </c>
       <c r="I23" t="inlineStr"/>
     </row>
@@ -1229,10 +1229,10 @@
         <v>0.06416166522379767</v>
       </c>
       <c r="G24" t="n">
-        <v>0.09807429388377578</v>
+        <v>0.07464673830432451</v>
       </c>
       <c r="H24" t="n">
-        <v>52.85496961727836</v>
+        <v>16.34164737457268</v>
       </c>
       <c r="I24" t="inlineStr"/>
     </row>
@@ -1262,10 +1262,10 @@
         <v>0.03288457073106435</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0519265456571133</v>
+        <v>0.06550795026722703</v>
       </c>
       <c r="H25" t="n">
-        <v>57.90549945680446</v>
+        <v>99.20573329955334</v>
       </c>
       <c r="I25" t="inlineStr"/>
     </row>
@@ -1295,10 +1295,10 @@
         <v>0.05401082814340269</v>
       </c>
       <c r="G26" t="n">
-        <v>0.045636453417444</v>
+        <v>0.03600596943314465</v>
       </c>
       <c r="H26" t="n">
-        <v>-15.50499226511415</v>
+        <v>-33.33564644195757</v>
       </c>
       <c r="I26" t="inlineStr"/>
     </row>
@@ -1328,10 +1328,10 @@
         <v>0.06433468169381938</v>
       </c>
       <c r="G27" t="n">
-        <v>0.07178662241185214</v>
+        <v>0.08420387480330536</v>
       </c>
       <c r="H27" t="n">
-        <v>11.58308477144244</v>
+        <v>30.88410882958454</v>
       </c>
       <c r="I27" t="inlineStr"/>
     </row>
@@ -1361,10 +1361,10 @@
         <v>-0.05928198100296411</v>
       </c>
       <c r="G28" t="n">
-        <v>-0.04697602347875234</v>
+        <v>-0.06638054692887646</v>
       </c>
       <c r="H28" t="n">
-        <v>-20.75834396221757</v>
+        <v>-11.9742387245079</v>
       </c>
       <c r="I28" t="inlineStr"/>
     </row>
@@ -1394,10 +1394,10 @@
         <v>-0.05281150307367723</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.06606705955011806</v>
+        <v>-0.05513111118241174</v>
       </c>
       <c r="H29" t="n">
-        <v>25.09975233605457</v>
+        <v>-4.392240276703419</v>
       </c>
       <c r="I29" t="inlineStr"/>
     </row>
@@ -1427,10 +1427,10 @@
         <v>0.07699420258580157</v>
       </c>
       <c r="G30" t="n">
-        <v>0.05820992228547785</v>
+        <v>0.07666266148115417</v>
       </c>
       <c r="H30" t="n">
-        <v>-24.39700609846658</v>
+        <v>-0.4306052839211373</v>
       </c>
       <c r="I30" t="inlineStr"/>
     </row>
@@ -1460,10 +1460,10 @@
         <v>0.06115431279408023</v>
       </c>
       <c r="G31" t="n">
-        <v>0.07407496493168669</v>
+        <v>0.09036957875000927</v>
       </c>
       <c r="H31" t="n">
-        <v>21.12794919487214</v>
+        <v>47.77302633471354</v>
       </c>
       <c r="I31" t="inlineStr"/>
     </row>
@@ -1493,10 +1493,10 @@
         <v>0.07344886362917534</v>
       </c>
       <c r="G32" t="n">
-        <v>0.06696071949613268</v>
+        <v>0.07788109838291009</v>
       </c>
       <c r="H32" t="n">
-        <v>-8.83355277734405</v>
+        <v>6.034449731056394</v>
       </c>
       <c r="I32" t="inlineStr"/>
     </row>
@@ -1526,10 +1526,10 @@
         <v>0.1261993152982801</v>
       </c>
       <c r="G33" t="n">
-        <v>0.1358214834680105</v>
+        <v>0.122760556662025</v>
       </c>
       <c r="H33" t="n">
-        <v>7.624580329130792</v>
+        <v>-2.724863148526107</v>
       </c>
       <c r="I33" t="inlineStr"/>
     </row>
@@ -1559,10 +1559,10 @@
         <v>0.02737189623751556</v>
       </c>
       <c r="G34" t="n">
-        <v>0.03275631066654054</v>
+        <v>0.02425832664447203</v>
       </c>
       <c r="H34" t="n">
-        <v>19.67132412859718</v>
+        <v>-11.37505990095093</v>
       </c>
       <c r="I34" t="inlineStr"/>
     </row>
@@ -1592,10 +1592,10 @@
         <v>0.02703077430986488</v>
       </c>
       <c r="G35" t="n">
-        <v>0.02019083371997943</v>
+        <v>0.02707587310451263</v>
       </c>
       <c r="H35" t="n">
-        <v>-25.30427175883458</v>
+        <v>0.1668424075861265</v>
       </c>
       <c r="I35" t="inlineStr"/>
     </row>
@@ -1625,10 +1625,10 @@
         <v>0.03421515439615114</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02537682231705091</v>
+        <v>0.02980021943682554</v>
       </c>
       <c r="H36" t="n">
-        <v>-25.83162997532594</v>
+        <v>-12.90344888761406</v>
       </c>
       <c r="I36" t="inlineStr"/>
     </row>
@@ -1658,10 +1658,10 @@
         <v>0.06941034141498056</v>
       </c>
       <c r="G37" t="n">
-        <v>0.04590916043219809</v>
+        <v>0.05250638545882749</v>
       </c>
       <c r="H37" t="n">
-        <v>-33.85832788557687</v>
+        <v>-24.35365625864038</v>
       </c>
       <c r="I37" t="inlineStr"/>
     </row>
@@ -1691,10 +1691,10 @@
         <v>-0.2402862095039686</v>
       </c>
       <c r="G38" t="n">
-        <v>-0.2231603498775225</v>
+        <v>-0.2261552001390764</v>
       </c>
       <c r="H38" t="n">
-        <v>-7.127275286334413</v>
+        <v>5.880907353802512</v>
       </c>
       <c r="I38" t="inlineStr"/>
     </row>
@@ -1724,10 +1724,10 @@
         <v>-0.2687051904527817</v>
       </c>
       <c r="G39" t="n">
-        <v>-0.2424345851635911</v>
+        <v>-0.2747344235767821</v>
       </c>
       <c r="H39" t="n">
-        <v>-9.776739051792527</v>
+        <v>-2.243809698592306</v>
       </c>
       <c r="I39" t="inlineStr"/>
     </row>
@@ -1757,10 +1757,10 @@
         <v>0.1249543385180605</v>
       </c>
       <c r="G40" t="n">
-        <v>0.1228065772924385</v>
+        <v>0.145582491182309</v>
       </c>
       <c r="H40" t="n">
-        <v>-1.718836857602636</v>
+        <v>16.50855257119943</v>
       </c>
       <c r="I40" t="inlineStr"/>
     </row>
@@ -1790,10 +1790,10 @@
         <v>0.1477318918246991</v>
       </c>
       <c r="G41" t="n">
-        <v>0.1466053783469542</v>
+        <v>0.1394734272758041</v>
       </c>
       <c r="H41" t="n">
-        <v>-0.762539126677964</v>
+        <v>-5.590170441122218</v>
       </c>
       <c r="I41" t="inlineStr"/>
     </row>
@@ -1823,10 +1823,10 @@
         <v>0.1193177533271809</v>
       </c>
       <c r="G42" t="n">
-        <v>0.1309362814176797</v>
+        <v>0.1200518524422454</v>
       </c>
       <c r="H42" t="n">
-        <v>9.737468035154558</v>
+        <v>0.6152471820781912</v>
       </c>
       <c r="I42" t="inlineStr"/>
     </row>
@@ -1856,10 +1856,10 @@
         <v>0.1398828396058171</v>
       </c>
       <c r="G43" t="n">
-        <v>0.1527317498399977</v>
+        <v>0.1530483233820417</v>
       </c>
       <c r="H43" t="n">
-        <v>9.185479984813149</v>
+        <v>9.411793335997661</v>
       </c>
       <c r="I43" t="inlineStr"/>
     </row>
@@ -1889,10 +1889,10 @@
         <v>-0.09280672947451118</v>
       </c>
       <c r="G44" t="n">
-        <v>-0.09583212623202021</v>
+        <v>-0.07808486798896622</v>
       </c>
       <c r="H44" t="n">
-        <v>3.259889422501344</v>
+        <v>15.86292456258599</v>
       </c>
       <c r="I44" t="inlineStr"/>
     </row>
@@ -1922,10 +1922,10 @@
         <v>-0.135684768442413</v>
       </c>
       <c r="G45" t="n">
-        <v>-0.1065787396582267</v>
+        <v>-0.1087598150527853</v>
       </c>
       <c r="H45" t="n">
-        <v>-21.45121307152425</v>
+        <v>19.84375527092057</v>
       </c>
       <c r="I45" t="inlineStr"/>
     </row>
@@ -1955,10 +1955,10 @@
         <v>0.1196509483542268</v>
       </c>
       <c r="G46" t="n">
-        <v>0.1074494546843837</v>
+        <v>0.1130666734102888</v>
       </c>
       <c r="H46" t="n">
-        <v>-10.19757372396293</v>
+        <v>-5.502902429527967</v>
       </c>
       <c r="I46" t="inlineStr"/>
     </row>
@@ -1988,10 +1988,10 @@
         <v>0.1078194324209143</v>
       </c>
       <c r="G47" t="n">
-        <v>0.1057138411769118</v>
+        <v>0.1146840814624759</v>
       </c>
       <c r="H47" t="n">
-        <v>-1.952886596344269</v>
+        <v>6.366801315335093</v>
       </c>
       <c r="I47" t="inlineStr"/>
     </row>
@@ -2021,10 +2021,10 @@
         <v>0.009271221113961911</v>
       </c>
       <c r="G48" t="n">
-        <v>0.006645064509751052</v>
+        <v>0.02548436669359086</v>
       </c>
       <c r="H48" t="n">
-        <v>-28.32589765609216</v>
+        <v>174.8760533303742</v>
       </c>
       <c r="I48" t="inlineStr"/>
     </row>
@@ -2054,10 +2054,10 @@
         <v>0.0584439169143932</v>
       </c>
       <c r="G49" t="n">
-        <v>0.05618123849570535</v>
+        <v>0.04300821712493778</v>
       </c>
       <c r="H49" t="n">
-        <v>-3.871537942951608</v>
+        <v>-26.41113156749084</v>
       </c>
       <c r="I49" t="inlineStr"/>
     </row>
@@ -2087,10 +2087,10 @@
         <v>0.03450030728229148</v>
       </c>
       <c r="G50" t="n">
-        <v>0.01813755357451561</v>
+        <v>0.05704520388500041</v>
       </c>
       <c r="H50" t="n">
-        <v>-47.42784918954806</v>
+        <v>65.34694435687214</v>
       </c>
       <c r="I50" t="inlineStr"/>
     </row>
@@ -2120,10 +2120,10 @@
         <v>0.03930788418595026</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03685131203172518</v>
+        <v>0.02750210025215913</v>
       </c>
       <c r="H51" t="n">
-        <v>-6.249565971559285</v>
+        <v>-30.03413737036208</v>
       </c>
       <c r="I51" t="inlineStr"/>
     </row>
@@ -2153,10 +2153,10 @@
         <v>-0.006158526438982439</v>
       </c>
       <c r="G52" t="n">
-        <v>-0.01698035929030663</v>
+        <v>-0.005016979570898105</v>
       </c>
       <c r="H52" t="n">
-        <v>175.7211397652498</v>
+        <v>18.53603908978183</v>
       </c>
       <c r="I52" t="inlineStr"/>
     </row>
@@ -2186,10 +2186,10 @@
         <v>-0.004774662854830472</v>
       </c>
       <c r="G53" t="n">
-        <v>-0.01408075393659657</v>
+        <v>-0.01386831126250797</v>
       </c>
       <c r="H53" t="n">
-        <v>194.9057214029517</v>
+        <v>-190.4563460114793</v>
       </c>
       <c r="I53" t="inlineStr"/>
     </row>
@@ -2219,10 +2219,10 @@
         <v>0.04415694658471229</v>
       </c>
       <c r="G54" t="n">
-        <v>0.05530612280521644</v>
+        <v>0.05539176200132805</v>
       </c>
       <c r="H54" t="n">
-        <v>25.24897458458811</v>
+        <v>25.44291733365777</v>
       </c>
       <c r="I54" t="inlineStr"/>
     </row>
@@ -2252,10 +2252,10 @@
         <v>0.07926870284689123</v>
       </c>
       <c r="G55" t="n">
-        <v>0.08130548835057616</v>
+        <v>0.1033571599502068</v>
       </c>
       <c r="H55" t="n">
-        <v>2.569469955398425</v>
+        <v>30.38835787415724</v>
       </c>
       <c r="I55" t="inlineStr"/>
     </row>
@@ -2285,10 +2285,10 @@
         <v>0.1000726041358321</v>
       </c>
       <c r="G56" t="n">
-        <v>0.09039998210333137</v>
+        <v>0.1052941544172446</v>
       </c>
       <c r="H56" t="n">
-        <v>-9.665604403950292</v>
+        <v>5.217761970424093</v>
       </c>
       <c r="I56" t="inlineStr"/>
     </row>
@@ -2318,10 +2318,10 @@
         <v>0.1103832506947538</v>
       </c>
       <c r="G57" t="n">
-        <v>0.1006777750126559</v>
+        <v>0.1106592407793382</v>
       </c>
       <c r="H57" t="n">
-        <v>-8.79252569661746</v>
+        <v>0.2500289517180488</v>
       </c>
       <c r="I57" t="inlineStr"/>
     </row>
@@ -2351,10 +2351,10 @@
         <v>0.000606915721200788</v>
       </c>
       <c r="G58" t="n">
-        <v>0.01411818186041385</v>
+        <v>0.01392898901582786</v>
       </c>
       <c r="H58" t="n">
-        <v>2226.217853193999</v>
+        <v>2195.045016838456</v>
       </c>
       <c r="I58" t="inlineStr"/>
     </row>
@@ -2384,10 +2384,10 @@
         <v>0.006268794825673501</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04173407050879016</v>
+        <v>0.02518847614990741</v>
       </c>
       <c r="H59" t="n">
-        <v>565.7431239872549</v>
+        <v>301.8073146492115</v>
       </c>
       <c r="I59" t="inlineStr"/>
     </row>
@@ -2417,10 +2417,10 @@
         <v>0.008575708995245046</v>
       </c>
       <c r="G60" t="n">
-        <v>0.01724429230355096</v>
+        <v>0.01129552651632574</v>
       </c>
       <c r="H60" t="n">
-        <v>101.082992824411</v>
+        <v>31.71536630485882</v>
       </c>
       <c r="I60" t="inlineStr"/>
     </row>
@@ -2450,10 +2450,10 @@
         <v>-0.01417195439250775</v>
       </c>
       <c r="G61" t="n">
-        <v>0.008739112843436279</v>
+        <v>0.01186983709567438</v>
       </c>
       <c r="H61" t="n">
-        <v>-161.6648388881096</v>
+        <v>183.7558234166318</v>
       </c>
       <c r="I61" t="inlineStr"/>
     </row>
@@ -2483,10 +2483,10 @@
         <v>-0.04820781920073289</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.035486747367101</v>
+        <v>-0.02820360235190776</v>
       </c>
       <c r="H62" t="n">
-        <v>-26.38798444846162</v>
+        <v>41.49579296572082</v>
       </c>
       <c r="I62" t="inlineStr"/>
     </row>
@@ -2516,10 +2516,10 @@
         <v>-0.08060956652253479</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.04783885488607079</v>
+        <v>-0.03659250528056145</v>
       </c>
       <c r="H63" t="n">
-        <v>-40.65362592826099</v>
+        <v>54.60525734208998</v>
       </c>
       <c r="I63" t="inlineStr"/>
     </row>
@@ -2549,10 +2549,10 @@
         <v>0.06174173460430174</v>
       </c>
       <c r="G64" t="n">
-        <v>0.06216179282719812</v>
+        <v>0.05980842890053878</v>
       </c>
       <c r="H64" t="n">
-        <v>0.6803472976399274</v>
+        <v>-3.131278568950768</v>
       </c>
       <c r="I64" t="inlineStr"/>
     </row>
@@ -2582,10 +2582,10 @@
         <v>0.06662959811614069</v>
       </c>
       <c r="G65" t="n">
-        <v>0.07336858498223532</v>
+        <v>0.08497083327814985</v>
       </c>
       <c r="H65" t="n">
-        <v>10.11410402678407</v>
+        <v>27.52715862106646</v>
       </c>
       <c r="I65" t="inlineStr"/>
     </row>
@@ -2615,10 +2615,10 @@
         <v>0.2131318946009768</v>
       </c>
       <c r="G66" t="n">
-        <v>0.1857840464110021</v>
+        <v>0.1815283848111712</v>
       </c>
       <c r="H66" t="n">
-        <v>-12.83141983098074</v>
+        <v>-14.82814660329152</v>
       </c>
       <c r="I66" t="inlineStr"/>
     </row>
@@ -2648,10 +2648,10 @@
         <v>0.2216592203847949</v>
       </c>
       <c r="G67" t="n">
-        <v>0.2238960444898099</v>
+        <v>0.2297256788121951</v>
       </c>
       <c r="H67" t="n">
-        <v>1.009127480071401</v>
+        <v>3.639126048263196</v>
       </c>
       <c r="I67" t="inlineStr"/>
     </row>
@@ -2681,10 +2681,10 @@
         <v>-0.08613029805961427</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.1048823078050004</v>
+        <v>-0.09503677294220395</v>
       </c>
       <c r="H68" t="n">
-        <v>21.77167636457859</v>
+        <v>-10.3406990144457</v>
       </c>
       <c r="I68" t="inlineStr"/>
     </row>
@@ -2714,10 +2714,10 @@
         <v>-0.07682832271405972</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.08350806467797997</v>
+        <v>-0.06557610951789507</v>
       </c>
       <c r="H69" t="n">
-        <v>8.694374324402435</v>
+        <v>14.64591806597578</v>
       </c>
       <c r="I69" t="inlineStr"/>
     </row>
@@ -2747,10 +2747,10 @@
         <v>-0.1388418424610572</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.09031752712964643</v>
+        <v>-0.1456771790239857</v>
       </c>
       <c r="H70" t="n">
-        <v>-34.94934558004086</v>
+        <v>-4.923109951415169</v>
       </c>
       <c r="I70" t="inlineStr"/>
     </row>
@@ -2780,10 +2780,10 @@
         <v>-0.1464666816500254</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.1239531009765966</v>
+        <v>-0.1326986586949919</v>
       </c>
       <c r="H71" t="n">
-        <v>-15.37112769935202</v>
+        <v>9.400105744138791</v>
       </c>
       <c r="I71" t="inlineStr"/>
     </row>
@@ -2813,10 +2813,10 @@
         <v>0.1654037325064491</v>
       </c>
       <c r="G72" t="n">
-        <v>0.1421398869179497</v>
+        <v>0.1583752123779336</v>
       </c>
       <c r="H72" t="n">
-        <v>-14.06488549923886</v>
+        <v>-4.249311682395965</v>
       </c>
       <c r="I72" t="inlineStr"/>
     </row>
@@ -2846,10 +2846,10 @@
         <v>0.1440606197197999</v>
       </c>
       <c r="G73" t="n">
-        <v>0.160258015320168</v>
+        <v>0.1419030360643981</v>
       </c>
       <c r="H73" t="n">
-        <v>11.24345822742697</v>
+        <v>-1.497691499313492</v>
       </c>
       <c r="I73" t="inlineStr"/>
     </row>
@@ -2879,10 +2879,10 @@
         <v>-0.02644312168572005</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.01742077105199324</v>
+        <v>-0.06142083568491113</v>
       </c>
       <c r="H74" t="n">
-        <v>-34.11983933273319</v>
+        <v>-132.2752828312246</v>
       </c>
       <c r="I74" t="inlineStr"/>
     </row>
@@ -2912,10 +2912,10 @@
         <v>-0.03673443805039947</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.05261091742057731</v>
+        <v>-0.04650161943142725</v>
       </c>
       <c r="H75" t="n">
-        <v>43.21960594142038</v>
+        <v>-26.58862337196299</v>
       </c>
       <c r="I75" t="inlineStr"/>
     </row>
@@ -2945,10 +2945,10 @@
         <v>0.0241116249856462</v>
       </c>
       <c r="G76" t="n">
-        <v>0.004529563964051648</v>
+        <v>0.01713689362246357</v>
       </c>
       <c r="H76" t="n">
-        <v>-81.21419038846149</v>
+        <v>-28.92684075558877</v>
       </c>
       <c r="I76" t="inlineStr"/>
     </row>
@@ -2978,10 +2978,10 @@
         <v>-0.009540996018607206</v>
       </c>
       <c r="G77" t="n">
-        <v>0.009500000649579298</v>
+        <v>0.01092326648084106</v>
       </c>
       <c r="H77" t="n">
-        <v>-199.5703240107431</v>
+        <v>214.4876956193892</v>
       </c>
       <c r="I77" t="inlineStr"/>
     </row>
@@ -3011,10 +3011,10 @@
         <v>0.07581151683776853</v>
       </c>
       <c r="G78" t="n">
-        <v>0.06193586338611855</v>
+        <v>0.08432558443778146</v>
       </c>
       <c r="H78" t="n">
-        <v>-18.3028305334438</v>
+        <v>11.23057281419715</v>
       </c>
       <c r="I78" t="inlineStr"/>
     </row>
@@ -3044,10 +3044,10 @@
         <v>0.08006386841778766</v>
       </c>
       <c r="G79" t="n">
-        <v>0.08163030547738086</v>
+        <v>0.08415794403881972</v>
       </c>
       <c r="H79" t="n">
-        <v>1.956484354989251</v>
+        <v>5.113512127178815</v>
       </c>
       <c r="I79" t="inlineStr"/>
     </row>
@@ -3077,10 +3077,10 @@
         <v>0.06522632324778001</v>
       </c>
       <c r="G80" t="n">
-        <v>0.05627372668535317</v>
+        <v>0.06390469625511666</v>
       </c>
       <c r="H80" t="n">
-        <v>-13.72543494199106</v>
+        <v>-2.02621721853428</v>
       </c>
       <c r="I80" t="inlineStr"/>
     </row>
@@ -3110,10 +3110,10 @@
         <v>0.03716494275777807</v>
       </c>
       <c r="G81" t="n">
-        <v>0.0522346936894466</v>
+        <v>0.04468057740355768</v>
       </c>
       <c r="H81" t="n">
-        <v>40.54829582245128</v>
+        <v>20.22237648733281</v>
       </c>
       <c r="I81" t="inlineStr"/>
     </row>
@@ -3143,10 +3143,10 @@
         <v>0.05802917472569856</v>
       </c>
       <c r="G82" t="n">
-        <v>0.0493145663858446</v>
+        <v>0.06583383439125626</v>
       </c>
       <c r="H82" t="n">
-        <v>-15.01763273568432</v>
+        <v>13.44954447904867</v>
       </c>
       <c r="I82" t="inlineStr"/>
     </row>
@@ -3176,10 +3176,10 @@
         <v>0.06401056695318895</v>
       </c>
       <c r="G83" t="n">
-        <v>0.06668177621463915</v>
+        <v>0.08034978897437482</v>
       </c>
       <c r="H83" t="n">
-        <v>4.173075460187165</v>
+        <v>25.52581987460723</v>
       </c>
       <c r="I83" t="inlineStr"/>
     </row>
@@ -3209,10 +3209,10 @@
         <v>-0.008333093508537951</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.01268079046132214</v>
+        <v>-0.006785054495669197</v>
       </c>
       <c r="H84" t="n">
-        <v>52.1738649437884</v>
+        <v>18.57700278153196</v>
       </c>
       <c r="I84" t="inlineStr"/>
     </row>
@@ -3242,10 +3242,10 @@
         <v>-0.003871410762059371</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.01292100247077104</v>
+        <v>-0.02095108280895551</v>
       </c>
       <c r="H85" t="n">
-        <v>233.7543666871918</v>
+        <v>-441.1743701877483</v>
       </c>
       <c r="I85" t="inlineStr"/>
     </row>
@@ -3275,10 +3275,10 @@
         <v>0.0252871550052199</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02343444541288046</v>
+        <v>0.01685183510816168</v>
       </c>
       <c r="H86" t="n">
-        <v>-7.326682625850925</v>
+        <v>-33.35812152579821</v>
       </c>
       <c r="I86" t="inlineStr"/>
     </row>
@@ -3308,10 +3308,10 @@
         <v>0.0296023691677582</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03765911465401642</v>
+        <v>0.04112004232741489</v>
       </c>
       <c r="H87" t="n">
-        <v>27.21655635263588</v>
+        <v>38.90794380134044</v>
       </c>
       <c r="I87" t="inlineStr"/>
     </row>
@@ -3341,10 +3341,10 @@
         <v>-0.01917066728033536</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.02022638135700897</v>
+        <v>-0.01584373684447688</v>
       </c>
       <c r="H88" t="n">
-        <v>5.506923996101714</v>
+        <v>17.35427560871152</v>
       </c>
       <c r="I88" t="inlineStr"/>
     </row>
@@ -3374,10 +3374,10 @@
         <v>-0.01607360886127331</v>
       </c>
       <c r="G89" t="n">
-        <v>-0.01876157893946894</v>
+        <v>-0.01446747424415826</v>
       </c>
       <c r="H89" t="n">
-        <v>16.72287848606202</v>
+        <v>9.992370916681711</v>
       </c>
       <c r="I89" t="inlineStr"/>
     </row>
@@ -3407,10 +3407,10 @@
         <v>-0.02718932048265135</v>
       </c>
       <c r="G90" t="n">
-        <v>-0.04461588194310225</v>
+        <v>-0.03980740096769889</v>
       </c>
       <c r="H90" t="n">
-        <v>64.09340561331882</v>
+        <v>-46.4082230120416</v>
       </c>
       <c r="I90" t="inlineStr"/>
     </row>
@@ -3440,10 +3440,10 @@
         <v>0.002587924173862998</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.01452627299579925</v>
+        <v>0.0001637477146955199</v>
       </c>
       <c r="H91" t="n">
-        <v>-661.3098383062694</v>
+        <v>-93.67262316456925</v>
       </c>
       <c r="I91" t="inlineStr"/>
     </row>
@@ -3473,10 +3473,10 @@
         <v>-0.02218162813191362</v>
       </c>
       <c r="G92" t="n">
-        <v>-0.02056605527411021</v>
+        <v>-0.008879037080527414</v>
       </c>
       <c r="H92" t="n">
-        <v>-7.283382663326772</v>
+        <v>59.97121118556316</v>
       </c>
       <c r="I92" t="inlineStr"/>
     </row>
@@ -3506,10 +3506,10 @@
         <v>-0.0479899785492678</v>
       </c>
       <c r="G93" t="n">
-        <v>-0.03728417907037333</v>
+        <v>-0.03613671650942513</v>
       </c>
       <c r="H93" t="n">
-        <v>-22.30840646845384</v>
+        <v>24.69945267359057</v>
       </c>
       <c r="I93" t="inlineStr"/>
     </row>
@@ -3539,10 +3539,10 @@
         <v>0.01443538508154987</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02279540084568737</v>
+        <v>0.01877060190225903</v>
       </c>
       <c r="H94" t="n">
-        <v>57.91335469687326</v>
+        <v>30.03187511949425</v>
       </c>
       <c r="I94" t="inlineStr"/>
     </row>
@@ -3572,10 +3572,10 @@
         <v>0.02757106880091253</v>
       </c>
       <c r="G95" t="n">
-        <v>0.01156582903607737</v>
+        <v>0.02374904195039715</v>
       </c>
       <c r="H95" t="n">
-        <v>-58.0508498977937</v>
+        <v>-13.86245443770712</v>
       </c>
       <c r="I95" t="inlineStr"/>
     </row>
@@ -3605,10 +3605,10 @@
         <v>-0.1174615858869304</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.1366286573353407</v>
+        <v>-0.1119284445074833</v>
       </c>
       <c r="H96" t="n">
-        <v>16.31773596762152</v>
+        <v>4.710596521975582</v>
       </c>
       <c r="I96" t="inlineStr"/>
     </row>
@@ -3638,10 +3638,10 @@
         <v>-0.1623101903917984</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.1155896212157225</v>
+        <v>-0.1727081028521407</v>
       </c>
       <c r="H97" t="n">
-        <v>-28.78474177332781</v>
+        <v>-6.4061981784649</v>
       </c>
       <c r="I97" t="inlineStr"/>
     </row>
@@ -3671,10 +3671,10 @@
         <v>0.1129671520447325</v>
       </c>
       <c r="G98" t="n">
-        <v>0.08792976082083906</v>
+        <v>0.08821045476012611</v>
       </c>
       <c r="H98" t="n">
-        <v>-22.16342606741045</v>
+        <v>-21.91495212236853</v>
       </c>
       <c r="I98" t="inlineStr"/>
     </row>
@@ -3704,10 +3704,10 @@
         <v>0.1050362907047985</v>
       </c>
       <c r="G99" t="n">
-        <v>0.09688142237099698</v>
+        <v>0.1268891523436103</v>
       </c>
       <c r="H99" t="n">
-        <v>-7.763857881006621</v>
+        <v>20.8050584156943</v>
       </c>
       <c r="I99" t="inlineStr"/>
     </row>
@@ -3737,10 +3737,10 @@
         <v>0.02592655471171142</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01314908974754907</v>
+        <v>0.03279808265203391</v>
       </c>
       <c r="H100" t="n">
-        <v>-49.28331244255364</v>
+        <v>26.50382211107486</v>
       </c>
       <c r="I100" t="inlineStr"/>
     </row>
@@ -3770,10 +3770,10 @@
         <v>0.01324529942437244</v>
       </c>
       <c r="G101" t="n">
-        <v>0.0182639303194126</v>
+        <v>0.01532619611162651</v>
       </c>
       <c r="H101" t="n">
-        <v>37.88990142273015</v>
+        <v>15.71045410589246</v>
       </c>
       <c r="I101" t="inlineStr"/>
     </row>
@@ -3803,10 +3803,10 @@
         <v>0.0008523699446128174</v>
       </c>
       <c r="G102" t="n">
-        <v>0.01957418695126318</v>
+        <v>0.01369643581292137</v>
       </c>
       <c r="H102" t="n">
-        <v>2196.442650867354</v>
+        <v>1506.865176263679</v>
       </c>
       <c r="I102" t="inlineStr"/>
     </row>
@@ -3836,10 +3836,10 @@
         <v>0.01859691948750035</v>
       </c>
       <c r="G103" t="n">
-        <v>0.005239092498354471</v>
+        <v>0.006493506832137709</v>
       </c>
       <c r="H103" t="n">
-        <v>-71.8281702414432</v>
+        <v>-65.082890010347</v>
       </c>
       <c r="I103" t="inlineStr"/>
     </row>
@@ -3869,10 +3869,10 @@
         <v>0.04685964934835764</v>
       </c>
       <c r="G104" t="n">
-        <v>0.06964920601683861</v>
+        <v>0.04988280602668816</v>
       </c>
       <c r="H104" t="n">
-        <v>48.6336474672739</v>
+        <v>6.451513659131723</v>
       </c>
       <c r="I104" t="inlineStr"/>
     </row>
@@ -3902,10 +3902,10 @@
         <v>0.04445404615924812</v>
       </c>
       <c r="G105" t="n">
-        <v>0.06793897929340738</v>
+        <v>0.06941885413576358</v>
       </c>
       <c r="H105" t="n">
-        <v>52.82968630128511</v>
+        <v>56.15868550431566</v>
       </c>
       <c r="I105" t="inlineStr"/>
     </row>
@@ -3935,10 +3935,10 @@
         <v>-0.3176161960821992</v>
       </c>
       <c r="G106" t="n">
-        <v>-0.2947773321202048</v>
+        <v>-0.2938575583623888</v>
       </c>
       <c r="H106" t="n">
-        <v>-7.190711381759546</v>
+        <v>7.480297923365867</v>
       </c>
       <c r="I106" t="inlineStr"/>
     </row>
@@ -3968,10 +3968,10 @@
         <v>-0.3058580179222677</v>
       </c>
       <c r="G107" t="n">
-        <v>-0.3105471188787275</v>
+        <v>-0.3400629575369853</v>
       </c>
       <c r="H107" t="n">
-        <v>1.53309728099118</v>
+        <v>-11.18327381020648</v>
       </c>
       <c r="I107" t="inlineStr"/>
     </row>
@@ -4001,10 +4001,10 @@
         <v>0.219976300390154</v>
       </c>
       <c r="G108" t="n">
-        <v>0.2285474940585087</v>
+        <v>0.2310191579608167</v>
       </c>
       <c r="H108" t="n">
-        <v>3.89641686543171</v>
+        <v>5.020021498259988</v>
       </c>
       <c r="I108" t="inlineStr"/>
     </row>
@@ -4034,10 +4034,10 @@
         <v>0.249283133410306</v>
       </c>
       <c r="G109" t="n">
-        <v>0.2554973295762031</v>
+        <v>0.2578755130607099</v>
       </c>
       <c r="H109" t="n">
-        <v>2.492826562665538</v>
+        <v>3.44683554513145</v>
       </c>
       <c r="I109" t="inlineStr"/>
     </row>
@@ -4067,10 +4067,10 @@
         <v>0.003822301047072578</v>
       </c>
       <c r="G110" t="n">
-        <v>0.02480869664259062</v>
+        <v>0.0302428865351965</v>
       </c>
       <c r="H110" t="n">
-        <v>549.0513524985452</v>
+        <v>691.2219933162748</v>
       </c>
       <c r="I110" t="inlineStr"/>
     </row>
@@ -4100,10 +4100,10 @@
         <v>0.02162869347624484</v>
       </c>
       <c r="G111" t="n">
-        <v>0.01923676002070217</v>
+        <v>0.04355997253240223</v>
       </c>
       <c r="H111" t="n">
-        <v>-11.05907510395748</v>
+        <v>101.3990007313428</v>
       </c>
       <c r="I111" t="inlineStr"/>
     </row>
@@ -4133,10 +4133,10 @@
         <v>0.04266279540653856</v>
       </c>
       <c r="G112" t="n">
-        <v>0.04200726122018659</v>
+        <v>0.04731989298348104</v>
       </c>
       <c r="H112" t="n">
-        <v>-1.536547664318093</v>
+        <v>10.91606288937345</v>
       </c>
       <c r="I112" t="inlineStr"/>
     </row>
@@ -4166,10 +4166,10 @@
         <v>0.03369441758879654</v>
       </c>
       <c r="G113" t="n">
-        <v>0.05949941800149229</v>
+        <v>0.06362050822196023</v>
       </c>
       <c r="H113" t="n">
-        <v>76.5853879049566</v>
+        <v>88.81616829938673</v>
       </c>
       <c r="I113" t="inlineStr"/>
     </row>

--- a/Code/Data/DAX30/Compared Returns/Auto Recurrence/input 30/DAX30_returns_compared_trimester.xlsx
+++ b/Code/Data/DAX30/Compared Returns/Auto Recurrence/input 30/DAX30_returns_compared_trimester.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -53,18 +53,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -501,13 +501,13 @@
         <v>0.04690428506837689</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03020736901192043</v>
+        <v>0.04911907115956891</v>
       </c>
       <c r="H2" t="n">
-        <v>-35.59784789836527</v>
+        <v>4.721926979514364</v>
       </c>
       <c r="I2" t="n">
-        <v>44.97867762211805</v>
+        <v>13.2958026690407</v>
       </c>
     </row>
     <row r="3">
@@ -536,10 +536,10 @@
         <v>0.07240634976255141</v>
       </c>
       <c r="G3" t="n">
-        <v>0.07836015995230651</v>
+        <v>0.06407405137770411</v>
       </c>
       <c r="H3" t="n">
-        <v>8.222773567898347</v>
+        <v>-11.50769015724746</v>
       </c>
       <c r="I3" t="inlineStr"/>
     </row>
@@ -569,10 +569,10 @@
         <v>0.05677872930236846</v>
       </c>
       <c r="G4" t="n">
-        <v>0.058736070513782</v>
+        <v>0.05233578023786526</v>
       </c>
       <c r="H4" t="n">
-        <v>3.447314223941064</v>
+        <v>-7.825023770508833</v>
       </c>
       <c r="I4" t="inlineStr"/>
     </row>
@@ -602,10 +602,10 @@
         <v>0.01431410888443309</v>
       </c>
       <c r="G5" t="n">
-        <v>0.006263741719587656</v>
+        <v>0.02135057052188565</v>
       </c>
       <c r="H5" t="n">
-        <v>-56.24078473791957</v>
+        <v>49.15752488864232</v>
       </c>
       <c r="I5" t="inlineStr"/>
     </row>
@@ -635,10 +635,10 @@
         <v>-0.02406522563137596</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.03546415633128947</v>
+        <v>0.01122755110821962</v>
       </c>
       <c r="H6" t="n">
-        <v>-47.36681415133594</v>
+        <v>146.6546679436958</v>
       </c>
       <c r="I6" t="inlineStr"/>
     </row>
@@ -668,10 +668,10 @@
         <v>-0.03313782199633989</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.01598086122447592</v>
+        <v>-0.0031641816014297</v>
       </c>
       <c r="H7" t="n">
-        <v>51.77455770556971</v>
+        <v>90.45144970064965</v>
       </c>
       <c r="I7" t="inlineStr"/>
     </row>
@@ -701,10 +701,10 @@
         <v>0.03132415382667915</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.0006672623986604138</v>
+        <v>0.05374101090757793</v>
       </c>
       <c r="H8" t="n">
-        <v>-102.1301849121048</v>
+        <v>71.56412653613671</v>
       </c>
       <c r="I8" t="inlineStr"/>
     </row>
@@ -734,10 +734,10 @@
         <v>0.01634254468973803</v>
       </c>
       <c r="G9" t="n">
-        <v>0.01485621053432185</v>
+        <v>-0.001066046228099654</v>
       </c>
       <c r="H9" t="n">
-        <v>-9.094875881535719</v>
+        <v>-106.5231348504071</v>
       </c>
       <c r="I9" t="inlineStr"/>
     </row>
@@ -767,10 +767,10 @@
         <v>-0.1585987240758367</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.1425439989117562</v>
+        <v>-0.1473219976446616</v>
       </c>
       <c r="H10" t="n">
-        <v>10.12285896852717</v>
+        <v>7.110225190577777</v>
       </c>
       <c r="I10" t="inlineStr"/>
     </row>
@@ -800,10 +800,10 @@
         <v>-0.1624399880904878</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.139709914738958</v>
+        <v>-0.1519276205344414</v>
       </c>
       <c r="H11" t="n">
-        <v>13.9929050837334</v>
+        <v>6.471539230962295</v>
       </c>
       <c r="I11" t="inlineStr"/>
     </row>
@@ -833,10 +833,10 @@
         <v>-0.06057036026101323</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.0688561304883855</v>
+        <v>-0.09203570487636044</v>
       </c>
       <c r="H12" t="n">
-        <v>-13.67957890900229</v>
+        <v>-51.94841912736686</v>
       </c>
       <c r="I12" t="inlineStr"/>
     </row>
@@ -866,10 +866,10 @@
         <v>-0.09595844735096801</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.07283712167510856</v>
+        <v>-0.09068137298422037</v>
       </c>
       <c r="H13" t="n">
-        <v>24.09514358990533</v>
+        <v>5.49933279708741</v>
       </c>
       <c r="I13" t="inlineStr"/>
     </row>
@@ -899,10 +899,10 @@
         <v>-0.0880758363513635</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.07118687515795226</v>
+        <v>-0.06979572492548838</v>
       </c>
       <c r="H14" t="n">
-        <v>19.17547637701175</v>
+        <v>20.75496774501208</v>
       </c>
       <c r="I14" t="inlineStr"/>
     </row>
@@ -932,10 +932,10 @@
         <v>-0.09854107075769501</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.05821005159810662</v>
+        <v>-0.08637348029560649</v>
       </c>
       <c r="H15" t="n">
-        <v>40.92813164041956</v>
+        <v>12.34773518141253</v>
       </c>
       <c r="I15" t="inlineStr"/>
     </row>
@@ -965,10 +965,10 @@
         <v>-0.3086795035919008</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.3083479418859826</v>
+        <v>-0.2912690597648956</v>
       </c>
       <c r="H16" t="n">
-        <v>0.1074129322031515</v>
+        <v>5.640297986880008</v>
       </c>
       <c r="I16" t="inlineStr"/>
     </row>
@@ -998,10 +998,10 @@
         <v>-0.3125468234095096</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.3196943790984516</v>
+        <v>-0.2942981845339212</v>
       </c>
       <c r="H17" t="n">
-        <v>-2.286875166725663</v>
+        <v>5.838689600654947</v>
       </c>
       <c r="I17" t="inlineStr"/>
     </row>
@@ -1031,10 +1031,10 @@
         <v>-0.1425913561743559</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.1421855380878289</v>
+        <v>-0.1239019971945025</v>
       </c>
       <c r="H18" t="n">
-        <v>0.2846021648260093</v>
+        <v>13.10693683072954</v>
       </c>
       <c r="I18" t="inlineStr"/>
     </row>
@@ -1064,10 +1064,10 @@
         <v>-0.1550685811404286</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.1689700661047719</v>
+        <v>-0.1471101338250526</v>
       </c>
       <c r="H19" t="n">
-        <v>-8.964733450262399</v>
+        <v>5.132211346003669</v>
       </c>
       <c r="I19" t="inlineStr"/>
     </row>
@@ -1097,10 +1097,10 @@
         <v>0.1418115268149177</v>
       </c>
       <c r="G20" t="n">
-        <v>0.09514839324863539</v>
+        <v>0.1108580873729922</v>
       </c>
       <c r="H20" t="n">
-        <v>-32.90503572899523</v>
+        <v>-21.82716746454873</v>
       </c>
       <c r="I20" t="inlineStr"/>
     </row>
@@ -1130,10 +1130,10 @@
         <v>0.1848395652975698</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2203453261839447</v>
+        <v>0.2261896021165691</v>
       </c>
       <c r="H21" t="n">
-        <v>19.20896147381369</v>
+        <v>22.37077151335572</v>
       </c>
       <c r="I21" t="inlineStr"/>
     </row>
@@ -1163,10 +1163,10 @@
         <v>0.1839959105938305</v>
       </c>
       <c r="G22" t="n">
-        <v>0.1494510109424549</v>
+        <v>0.1616778319875211</v>
       </c>
       <c r="H22" t="n">
-        <v>-18.77481925543074</v>
+        <v>-12.12966012901036</v>
       </c>
       <c r="I22" t="inlineStr"/>
     </row>
@@ -1196,10 +1196,10 @@
         <v>0.167097082751942</v>
       </c>
       <c r="G23" t="n">
-        <v>0.1724638361450775</v>
+        <v>0.255532741625951</v>
       </c>
       <c r="H23" t="n">
-        <v>3.211757682869018</v>
+        <v>52.9247174262719</v>
       </c>
       <c r="I23" t="inlineStr"/>
     </row>
@@ -1229,10 +1229,10 @@
         <v>0.06416166522379767</v>
       </c>
       <c r="G24" t="n">
-        <v>0.07464673830432451</v>
+        <v>0.0660562513181166</v>
       </c>
       <c r="H24" t="n">
-        <v>16.34164737457268</v>
+        <v>2.952831862624766</v>
       </c>
       <c r="I24" t="inlineStr"/>
     </row>
@@ -1262,10 +1262,10 @@
         <v>0.03288457073106435</v>
       </c>
       <c r="G25" t="n">
-        <v>0.06550795026722703</v>
+        <v>0.05779936209817405</v>
       </c>
       <c r="H25" t="n">
-        <v>99.20573329955334</v>
+        <v>75.76438072087707</v>
       </c>
       <c r="I25" t="inlineStr"/>
     </row>
@@ -1295,10 +1295,10 @@
         <v>0.05401082814340269</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03600596943314465</v>
+        <v>0.02620549724445071</v>
       </c>
       <c r="H26" t="n">
-        <v>-33.33564644195757</v>
+        <v>-51.4810304799008</v>
       </c>
       <c r="I26" t="inlineStr"/>
     </row>
@@ -1328,10 +1328,10 @@
         <v>0.06433468169381938</v>
       </c>
       <c r="G27" t="n">
-        <v>0.08420387480330536</v>
+        <v>0.06140347703800172</v>
       </c>
       <c r="H27" t="n">
-        <v>30.88410882958454</v>
+        <v>-4.556181174203687</v>
       </c>
       <c r="I27" t="inlineStr"/>
     </row>
@@ -1361,10 +1361,10 @@
         <v>-0.05928198100296411</v>
       </c>
       <c r="G28" t="n">
-        <v>-0.06638054692887646</v>
+        <v>-0.04772973308604529</v>
       </c>
       <c r="H28" t="n">
-        <v>-11.9742387245079</v>
+        <v>19.48694649111204</v>
       </c>
       <c r="I28" t="inlineStr"/>
     </row>
@@ -1394,10 +1394,10 @@
         <v>-0.05281150307367723</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.05513111118241174</v>
+        <v>-0.05081790672290569</v>
       </c>
       <c r="H29" t="n">
-        <v>-4.392240276703419</v>
+        <v>3.774928253775081</v>
       </c>
       <c r="I29" t="inlineStr"/>
     </row>
@@ -1427,10 +1427,10 @@
         <v>0.07699420258580157</v>
       </c>
       <c r="G30" t="n">
-        <v>0.07666266148115417</v>
+        <v>0.04547315536721559</v>
       </c>
       <c r="H30" t="n">
-        <v>-0.4306052839211373</v>
+        <v>-40.93950733947695</v>
       </c>
       <c r="I30" t="inlineStr"/>
     </row>
@@ -1460,10 +1460,10 @@
         <v>0.06115431279408023</v>
       </c>
       <c r="G31" t="n">
-        <v>0.09036957875000927</v>
+        <v>0.06862066113015</v>
       </c>
       <c r="H31" t="n">
-        <v>47.77302633471354</v>
+        <v>12.20902990310852</v>
       </c>
       <c r="I31" t="inlineStr"/>
     </row>
@@ -1493,10 +1493,10 @@
         <v>0.07344886362917534</v>
       </c>
       <c r="G32" t="n">
-        <v>0.07788109838291009</v>
+        <v>0.07571733433211218</v>
       </c>
       <c r="H32" t="n">
-        <v>6.034449731056394</v>
+        <v>3.088503471462506</v>
       </c>
       <c r="I32" t="inlineStr"/>
     </row>
@@ -1526,10 +1526,10 @@
         <v>0.1261993152982801</v>
       </c>
       <c r="G33" t="n">
-        <v>0.122760556662025</v>
+        <v>0.1183342064259292</v>
       </c>
       <c r="H33" t="n">
-        <v>-2.724863148526107</v>
+        <v>-6.232291240060384</v>
       </c>
       <c r="I33" t="inlineStr"/>
     </row>
@@ -1559,10 +1559,10 @@
         <v>0.02737189623751556</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02425832664447203</v>
+        <v>0.02398748474486531</v>
       </c>
       <c r="H34" t="n">
-        <v>-11.37505990095093</v>
+        <v>-12.36454889088618</v>
       </c>
       <c r="I34" t="inlineStr"/>
     </row>
@@ -1592,10 +1592,10 @@
         <v>0.02703077430986488</v>
       </c>
       <c r="G35" t="n">
-        <v>0.02707587310451263</v>
+        <v>0.02596789949870372</v>
       </c>
       <c r="H35" t="n">
-        <v>0.1668424075861265</v>
+        <v>-3.932091618897002</v>
       </c>
       <c r="I35" t="inlineStr"/>
     </row>
@@ -1625,10 +1625,10 @@
         <v>0.03421515439615114</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02980021943682554</v>
+        <v>0.02221316074457195</v>
       </c>
       <c r="H36" t="n">
-        <v>-12.90344888761406</v>
+        <v>-35.07800523889874</v>
       </c>
       <c r="I36" t="inlineStr"/>
     </row>
@@ -1658,10 +1658,10 @@
         <v>0.06941034141498056</v>
       </c>
       <c r="G37" t="n">
-        <v>0.05250638545882749</v>
+        <v>0.05432284862135464</v>
       </c>
       <c r="H37" t="n">
-        <v>-24.35365625864038</v>
+        <v>-21.73666414262825</v>
       </c>
       <c r="I37" t="inlineStr"/>
     </row>
@@ -1691,10 +1691,10 @@
         <v>-0.2402862095039686</v>
       </c>
       <c r="G38" t="n">
-        <v>-0.2261552001390764</v>
+        <v>-0.2164439653985206</v>
       </c>
       <c r="H38" t="n">
-        <v>5.880907353802512</v>
+        <v>9.922435480032913</v>
       </c>
       <c r="I38" t="inlineStr"/>
     </row>
@@ -1724,10 +1724,10 @@
         <v>-0.2687051904527817</v>
       </c>
       <c r="G39" t="n">
-        <v>-0.2747344235767821</v>
+        <v>-0.2813331879085685</v>
       </c>
       <c r="H39" t="n">
-        <v>-2.243809698592306</v>
+        <v>-4.699573325884771</v>
       </c>
       <c r="I39" t="inlineStr"/>
     </row>
@@ -1757,10 +1757,10 @@
         <v>0.1249543385180605</v>
       </c>
       <c r="G40" t="n">
-        <v>0.145582491182309</v>
+        <v>0.1491880098003218</v>
       </c>
       <c r="H40" t="n">
-        <v>16.50855257119943</v>
+        <v>19.39402150391012</v>
       </c>
       <c r="I40" t="inlineStr"/>
     </row>
@@ -1790,10 +1790,10 @@
         <v>0.1477318918246991</v>
       </c>
       <c r="G41" t="n">
-        <v>0.1394734272758041</v>
+        <v>0.1431364828862219</v>
       </c>
       <c r="H41" t="n">
-        <v>-5.590170441122218</v>
+        <v>-3.110641095647893</v>
       </c>
       <c r="I41" t="inlineStr"/>
     </row>
@@ -1823,10 +1823,10 @@
         <v>0.1193177533271809</v>
       </c>
       <c r="G42" t="n">
-        <v>0.1200518524422454</v>
+        <v>0.113414649876508</v>
       </c>
       <c r="H42" t="n">
-        <v>0.6152471820781912</v>
+        <v>-4.947380658841291</v>
       </c>
       <c r="I42" t="inlineStr"/>
     </row>
@@ -1856,10 +1856,10 @@
         <v>0.1398828396058171</v>
       </c>
       <c r="G43" t="n">
-        <v>0.1530483233820417</v>
+        <v>0.182570352916425</v>
       </c>
       <c r="H43" t="n">
-        <v>9.411793335997661</v>
+        <v>30.51661907271772</v>
       </c>
       <c r="I43" t="inlineStr"/>
     </row>
@@ -1889,10 +1889,10 @@
         <v>-0.09280672947451118</v>
       </c>
       <c r="G44" t="n">
-        <v>-0.07808486798896622</v>
+        <v>-0.1046803954572134</v>
       </c>
       <c r="H44" t="n">
-        <v>15.86292456258599</v>
+        <v>-12.79397092207979</v>
       </c>
       <c r="I44" t="inlineStr"/>
     </row>
@@ -1922,10 +1922,10 @@
         <v>-0.135684768442413</v>
       </c>
       <c r="G45" t="n">
-        <v>-0.1087598150527853</v>
+        <v>-0.1342607880558622</v>
       </c>
       <c r="H45" t="n">
-        <v>19.84375527092057</v>
+        <v>1.049476962593022</v>
       </c>
       <c r="I45" t="inlineStr"/>
     </row>
@@ -1955,10 +1955,10 @@
         <v>0.1196509483542268</v>
       </c>
       <c r="G46" t="n">
-        <v>0.1130666734102888</v>
+        <v>0.1145477727143387</v>
       </c>
       <c r="H46" t="n">
-        <v>-5.502902429527967</v>
+        <v>-4.265052396225168</v>
       </c>
       <c r="I46" t="inlineStr"/>
     </row>
@@ -1988,10 +1988,10 @@
         <v>0.1078194324209143</v>
       </c>
       <c r="G47" t="n">
-        <v>0.1146840814624759</v>
+        <v>0.1122647063271756</v>
       </c>
       <c r="H47" t="n">
-        <v>6.366801315335093</v>
+        <v>4.122887504088761</v>
       </c>
       <c r="I47" t="inlineStr"/>
     </row>
@@ -2021,10 +2021,10 @@
         <v>0.009271221113961911</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02548436669359086</v>
+        <v>0.01067951864797865</v>
       </c>
       <c r="H48" t="n">
-        <v>174.8760533303742</v>
+        <v>15.1899897187861</v>
       </c>
       <c r="I48" t="inlineStr"/>
     </row>
@@ -2054,10 +2054,10 @@
         <v>0.0584439169143932</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04300821712493778</v>
+        <v>0.02466978754013782</v>
       </c>
       <c r="H49" t="n">
-        <v>-26.41113156749084</v>
+        <v>-57.78895590404499</v>
       </c>
       <c r="I49" t="inlineStr"/>
     </row>
@@ -2087,10 +2087,10 @@
         <v>0.03450030728229148</v>
       </c>
       <c r="G50" t="n">
-        <v>0.05704520388500041</v>
+        <v>0.01088373479734926</v>
       </c>
       <c r="H50" t="n">
-        <v>65.34694435687214</v>
+        <v>-68.45322359509612</v>
       </c>
       <c r="I50" t="inlineStr"/>
     </row>
@@ -2120,10 +2120,10 @@
         <v>0.03930788418595026</v>
       </c>
       <c r="G51" t="n">
-        <v>0.02750210025215913</v>
+        <v>0.02879598359921836</v>
       </c>
       <c r="H51" t="n">
-        <v>-30.03413737036208</v>
+        <v>-26.74247369053039</v>
       </c>
       <c r="I51" t="inlineStr"/>
     </row>
@@ -2153,10 +2153,10 @@
         <v>-0.006158526438982439</v>
       </c>
       <c r="G52" t="n">
-        <v>-0.005016979570898105</v>
+        <v>-0.007611722972499894</v>
       </c>
       <c r="H52" t="n">
-        <v>18.53603908978183</v>
+        <v>-23.59649744002014</v>
       </c>
       <c r="I52" t="inlineStr"/>
     </row>
@@ -2186,10 +2186,10 @@
         <v>-0.004774662854830472</v>
       </c>
       <c r="G53" t="n">
-        <v>-0.01386831126250797</v>
+        <v>-0.005680892211358835</v>
       </c>
       <c r="H53" t="n">
-        <v>-190.4563460114793</v>
+        <v>-18.97996537308474</v>
       </c>
       <c r="I53" t="inlineStr"/>
     </row>
@@ -2219,10 +2219,10 @@
         <v>0.04415694658471229</v>
       </c>
       <c r="G54" t="n">
-        <v>0.05539176200132805</v>
+        <v>0.05032565768047246</v>
       </c>
       <c r="H54" t="n">
-        <v>25.44291733365777</v>
+        <v>13.96996752011802</v>
       </c>
       <c r="I54" t="inlineStr"/>
     </row>
@@ -2252,10 +2252,10 @@
         <v>0.07926870284689123</v>
       </c>
       <c r="G55" t="n">
-        <v>0.1033571599502068</v>
+        <v>0.07541360299704553</v>
       </c>
       <c r="H55" t="n">
-        <v>30.38835787415724</v>
+        <v>-4.86333156894455</v>
       </c>
       <c r="I55" t="inlineStr"/>
     </row>
@@ -2285,10 +2285,10 @@
         <v>0.1000726041358321</v>
       </c>
       <c r="G56" t="n">
-        <v>0.1052941544172446</v>
+        <v>0.09171952031396927</v>
       </c>
       <c r="H56" t="n">
-        <v>5.217761970424093</v>
+        <v>-8.347023537555694</v>
       </c>
       <c r="I56" t="inlineStr"/>
     </row>
@@ -2318,10 +2318,10 @@
         <v>0.1103832506947538</v>
       </c>
       <c r="G57" t="n">
-        <v>0.1106592407793382</v>
+        <v>0.1072891443895378</v>
       </c>
       <c r="H57" t="n">
-        <v>0.2500289517180488</v>
+        <v>-2.803057787972047</v>
       </c>
       <c r="I57" t="inlineStr"/>
     </row>
@@ -2351,10 +2351,10 @@
         <v>0.000606915721200788</v>
       </c>
       <c r="G58" t="n">
-        <v>0.01392898901582786</v>
+        <v>0.006763631856196741</v>
       </c>
       <c r="H58" t="n">
-        <v>2195.045016838456</v>
+        <v>1014.426866849789</v>
       </c>
       <c r="I58" t="inlineStr"/>
     </row>
@@ -2384,10 +2384,10 @@
         <v>0.006268794825673501</v>
       </c>
       <c r="G59" t="n">
-        <v>0.02518847614990741</v>
+        <v>0.03514402751001418</v>
       </c>
       <c r="H59" t="n">
-        <v>301.8073146492115</v>
+        <v>460.6185636525184</v>
       </c>
       <c r="I59" t="inlineStr"/>
     </row>
@@ -2417,10 +2417,10 @@
         <v>0.008575708995245046</v>
       </c>
       <c r="G60" t="n">
-        <v>0.01129552651632574</v>
+        <v>-0.004066566293636511</v>
       </c>
       <c r="H60" t="n">
-        <v>31.71536630485882</v>
+        <v>-147.4195928976985</v>
       </c>
       <c r="I60" t="inlineStr"/>
     </row>
@@ -2450,10 +2450,10 @@
         <v>-0.01417195439250775</v>
       </c>
       <c r="G61" t="n">
-        <v>0.01186983709567438</v>
+        <v>0.01436965866228673</v>
       </c>
       <c r="H61" t="n">
-        <v>183.7558234166318</v>
+        <v>201.3950388514057</v>
       </c>
       <c r="I61" t="inlineStr"/>
     </row>
@@ -2483,10 +2483,10 @@
         <v>-0.04820781920073289</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.02820360235190776</v>
+        <v>-0.02972453119615699</v>
       </c>
       <c r="H62" t="n">
-        <v>41.49579296572082</v>
+        <v>38.34085073961384</v>
       </c>
       <c r="I62" t="inlineStr"/>
     </row>
@@ -2516,10 +2516,10 @@
         <v>-0.08060956652253479</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.03659250528056145</v>
+        <v>-0.03395467198228147</v>
       </c>
       <c r="H63" t="n">
-        <v>54.60525734208998</v>
+        <v>57.87761496919936</v>
       </c>
       <c r="I63" t="inlineStr"/>
     </row>
@@ -2549,10 +2549,10 @@
         <v>0.06174173460430174</v>
       </c>
       <c r="G64" t="n">
-        <v>0.05980842890053878</v>
+        <v>0.03984990627083602</v>
       </c>
       <c r="H64" t="n">
-        <v>-3.131278568950768</v>
+        <v>-35.45709960008226</v>
       </c>
       <c r="I64" t="inlineStr"/>
     </row>
@@ -2582,10 +2582,10 @@
         <v>0.06662959811614069</v>
       </c>
       <c r="G65" t="n">
-        <v>0.08497083327814985</v>
+        <v>0.08028344046761064</v>
       </c>
       <c r="H65" t="n">
-        <v>27.52715862106646</v>
+        <v>20.49215774597682</v>
       </c>
       <c r="I65" t="inlineStr"/>
     </row>
@@ -2615,10 +2615,10 @@
         <v>0.2131318946009768</v>
       </c>
       <c r="G66" t="n">
-        <v>0.1815283848111712</v>
+        <v>0.192910396966052</v>
       </c>
       <c r="H66" t="n">
-        <v>-14.82814660329152</v>
+        <v>-9.487785801737125</v>
       </c>
       <c r="I66" t="inlineStr"/>
     </row>
@@ -2648,10 +2648,10 @@
         <v>0.2216592203847949</v>
       </c>
       <c r="G67" t="n">
-        <v>0.2297256788121951</v>
+        <v>0.2304515625551737</v>
       </c>
       <c r="H67" t="n">
-        <v>3.639126048263196</v>
+        <v>3.966603399179838</v>
       </c>
       <c r="I67" t="inlineStr"/>
     </row>
@@ -2681,10 +2681,10 @@
         <v>-0.08613029805961427</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.09503677294220395</v>
+        <v>-0.09201836464152474</v>
       </c>
       <c r="H68" t="n">
-        <v>-10.3406990144457</v>
+        <v>-6.836231517317061</v>
       </c>
       <c r="I68" t="inlineStr"/>
     </row>
@@ -2714,10 +2714,10 @@
         <v>-0.07682832271405972</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.06557610951789507</v>
+        <v>-0.0659310533904952</v>
       </c>
       <c r="H69" t="n">
-        <v>14.64591806597578</v>
+        <v>14.1839219425915</v>
       </c>
       <c r="I69" t="inlineStr"/>
     </row>
@@ -2747,10 +2747,10 @@
         <v>-0.1388418424610572</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.1456771790239857</v>
+        <v>-0.127828464134101</v>
       </c>
       <c r="H70" t="n">
-        <v>-4.923109951415169</v>
+        <v>7.932319343893228</v>
       </c>
       <c r="I70" t="inlineStr"/>
     </row>
@@ -2780,10 +2780,10 @@
         <v>-0.1464666816500254</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.1326986586949919</v>
+        <v>-0.1253282432137946</v>
       </c>
       <c r="H71" t="n">
-        <v>9.400105744138791</v>
+        <v>14.43225052830788</v>
       </c>
       <c r="I71" t="inlineStr"/>
     </row>
@@ -2813,10 +2813,10 @@
         <v>0.1654037325064491</v>
       </c>
       <c r="G72" t="n">
-        <v>0.1583752123779336</v>
+        <v>0.1468629148743401</v>
       </c>
       <c r="H72" t="n">
-        <v>-4.249311682395965</v>
+        <v>-11.20943122089828</v>
       </c>
       <c r="I72" t="inlineStr"/>
     </row>
@@ -2846,10 +2846,10 @@
         <v>0.1440606197197999</v>
       </c>
       <c r="G73" t="n">
-        <v>0.1419030360643981</v>
+        <v>0.1654945266658513</v>
       </c>
       <c r="H73" t="n">
-        <v>-1.497691499313492</v>
+        <v>14.87839423968929</v>
       </c>
       <c r="I73" t="inlineStr"/>
     </row>
@@ -2879,10 +2879,10 @@
         <v>-0.02644312168572005</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.06142083568491113</v>
+        <v>-0.04257020204629017</v>
       </c>
       <c r="H74" t="n">
-        <v>-132.2752828312246</v>
+        <v>-60.98780829375053</v>
       </c>
       <c r="I74" t="inlineStr"/>
     </row>
@@ -2912,10 +2912,10 @@
         <v>-0.03673443805039947</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.04650161943142725</v>
+        <v>-0.04407196911079769</v>
       </c>
       <c r="H75" t="n">
-        <v>-26.58862337196299</v>
+        <v>-19.97452921515001</v>
       </c>
       <c r="I75" t="inlineStr"/>
     </row>
@@ -2945,10 +2945,10 @@
         <v>0.0241116249856462</v>
       </c>
       <c r="G76" t="n">
-        <v>0.01713689362246357</v>
+        <v>0.01404786092916249</v>
       </c>
       <c r="H76" t="n">
-        <v>-28.92684075558877</v>
+        <v>-41.73822404120308</v>
       </c>
       <c r="I76" t="inlineStr"/>
     </row>
@@ -2978,10 +2978,10 @@
         <v>-0.009540996018607206</v>
       </c>
       <c r="G77" t="n">
-        <v>0.01092326648084106</v>
+        <v>0.01823834063356959</v>
       </c>
       <c r="H77" t="n">
-        <v>214.4876956193892</v>
+        <v>291.1576170663996</v>
       </c>
       <c r="I77" t="inlineStr"/>
     </row>
@@ -3011,10 +3011,10 @@
         <v>0.07581151683776853</v>
       </c>
       <c r="G78" t="n">
-        <v>0.08432558443778146</v>
+        <v>0.08086439776233999</v>
       </c>
       <c r="H78" t="n">
-        <v>11.23057281419715</v>
+        <v>6.665057151388062</v>
       </c>
       <c r="I78" t="inlineStr"/>
     </row>
@@ -3044,10 +3044,10 @@
         <v>0.08006386841778766</v>
       </c>
       <c r="G79" t="n">
-        <v>0.08415794403881972</v>
+        <v>0.07321920797313819</v>
       </c>
       <c r="H79" t="n">
-        <v>5.113512127178815</v>
+        <v>-8.549000416683345</v>
       </c>
       <c r="I79" t="inlineStr"/>
     </row>
@@ -3077,10 +3077,10 @@
         <v>0.06522632324778001</v>
       </c>
       <c r="G80" t="n">
-        <v>0.06390469625511666</v>
+        <v>0.04337937454141961</v>
       </c>
       <c r="H80" t="n">
-        <v>-2.02621721853428</v>
+        <v>-33.49406745397682</v>
       </c>
       <c r="I80" t="inlineStr"/>
     </row>
@@ -3110,10 +3110,10 @@
         <v>0.03716494275777807</v>
       </c>
       <c r="G81" t="n">
-        <v>0.04468057740355768</v>
+        <v>0.04194687806085704</v>
       </c>
       <c r="H81" t="n">
-        <v>20.22237648733281</v>
+        <v>12.86679044347024</v>
       </c>
       <c r="I81" t="inlineStr"/>
     </row>
@@ -3143,10 +3143,10 @@
         <v>0.05802917472569856</v>
       </c>
       <c r="G82" t="n">
-        <v>0.06583383439125626</v>
+        <v>0.05311057711537603</v>
       </c>
       <c r="H82" t="n">
-        <v>13.44954447904867</v>
+        <v>-8.476077134600885</v>
       </c>
       <c r="I82" t="inlineStr"/>
     </row>
@@ -3176,10 +3176,10 @@
         <v>0.06401056695318895</v>
       </c>
       <c r="G83" t="n">
-        <v>0.08034978897437482</v>
+        <v>0.0681401895181187</v>
       </c>
       <c r="H83" t="n">
-        <v>25.52581987460723</v>
+        <v>6.451470064231357</v>
       </c>
       <c r="I83" t="inlineStr"/>
     </row>
@@ -3209,10 +3209,10 @@
         <v>-0.008333093508537951</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.006785054495669197</v>
+        <v>-0.006599856983961628</v>
       </c>
       <c r="H84" t="n">
-        <v>18.57700278153196</v>
+        <v>20.79943688139918</v>
       </c>
       <c r="I84" t="inlineStr"/>
     </row>
@@ -3242,10 +3242,10 @@
         <v>-0.003871410762059371</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.02095108280895551</v>
+        <v>-0.01138257105509187</v>
       </c>
       <c r="H85" t="n">
-        <v>-441.1743701877483</v>
+        <v>-194.0161030351888</v>
       </c>
       <c r="I85" t="inlineStr"/>
     </row>
@@ -3275,10 +3275,10 @@
         <v>0.0252871550052199</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01685183510816168</v>
+        <v>0.02848095328756553</v>
       </c>
       <c r="H86" t="n">
-        <v>-33.35812152579821</v>
+        <v>12.63012103056414</v>
       </c>
       <c r="I86" t="inlineStr"/>
     </row>
@@ -3308,10 +3308,10 @@
         <v>0.0296023691677582</v>
       </c>
       <c r="G87" t="n">
-        <v>0.04112004232741489</v>
+        <v>0.04839208052742362</v>
       </c>
       <c r="H87" t="n">
-        <v>38.90794380134044</v>
+        <v>63.47367419541027</v>
       </c>
       <c r="I87" t="inlineStr"/>
     </row>
@@ -3341,10 +3341,10 @@
         <v>-0.01917066728033536</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.01584373684447688</v>
+        <v>-0.03350180970935124</v>
       </c>
       <c r="H88" t="n">
-        <v>17.35427560871152</v>
+        <v>-74.75557433369202</v>
       </c>
       <c r="I88" t="inlineStr"/>
     </row>
@@ -3374,10 +3374,10 @@
         <v>-0.01607360886127331</v>
       </c>
       <c r="G89" t="n">
-        <v>-0.01446747424415826</v>
+        <v>-0.02960709371868004</v>
       </c>
       <c r="H89" t="n">
-        <v>9.992370916681711</v>
+        <v>-84.19692785988724</v>
       </c>
       <c r="I89" t="inlineStr"/>
     </row>
@@ -3407,10 +3407,10 @@
         <v>-0.02718932048265135</v>
       </c>
       <c r="G90" t="n">
-        <v>-0.03980740096769889</v>
+        <v>-0.0287824675340863</v>
       </c>
       <c r="H90" t="n">
-        <v>-46.4082230120416</v>
+        <v>-5.859458872653646</v>
       </c>
       <c r="I90" t="inlineStr"/>
     </row>
@@ -3440,10 +3440,10 @@
         <v>0.002587924173862998</v>
       </c>
       <c r="G91" t="n">
-        <v>0.0001637477146955199</v>
+        <v>-0.02547465089991625</v>
       </c>
       <c r="H91" t="n">
-        <v>-93.67262316456925</v>
+        <v>-1084.366201962177</v>
       </c>
       <c r="I91" t="inlineStr"/>
     </row>
@@ -3473,10 +3473,10 @@
         <v>-0.02218162813191362</v>
       </c>
       <c r="G92" t="n">
-        <v>-0.008879037080527414</v>
+        <v>0.009293407743136676</v>
       </c>
       <c r="H92" t="n">
-        <v>59.97121118556316</v>
+        <v>141.8968692824034</v>
       </c>
       <c r="I92" t="inlineStr"/>
     </row>
@@ -3506,10 +3506,10 @@
         <v>-0.0479899785492678</v>
       </c>
       <c r="G93" t="n">
-        <v>-0.03613671650942513</v>
+        <v>-0.01547411020921816</v>
       </c>
       <c r="H93" t="n">
-        <v>24.69945267359057</v>
+        <v>67.7555383915581</v>
       </c>
       <c r="I93" t="inlineStr"/>
     </row>
@@ -3539,10 +3539,10 @@
         <v>0.01443538508154987</v>
       </c>
       <c r="G94" t="n">
-        <v>0.01877060190225903</v>
+        <v>0.01137091256007279</v>
       </c>
       <c r="H94" t="n">
-        <v>30.03187511949425</v>
+        <v>-21.22889347367558</v>
       </c>
       <c r="I94" t="inlineStr"/>
     </row>
@@ -3572,10 +3572,10 @@
         <v>0.02757106880091253</v>
       </c>
       <c r="G95" t="n">
-        <v>0.02374904195039715</v>
+        <v>0.006717709757381085</v>
       </c>
       <c r="H95" t="n">
-        <v>-13.86245443770712</v>
+        <v>-75.63493165285364</v>
       </c>
       <c r="I95" t="inlineStr"/>
     </row>
@@ -3605,10 +3605,10 @@
         <v>-0.1174615858869304</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.1119284445074833</v>
+        <v>-0.1244764790787985</v>
       </c>
       <c r="H96" t="n">
-        <v>4.710596521975582</v>
+        <v>-5.97207430744269</v>
       </c>
       <c r="I96" t="inlineStr"/>
     </row>
@@ -3638,10 +3638,10 @@
         <v>-0.1623101903917984</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.1727081028521407</v>
+        <v>-0.1504245884292143</v>
       </c>
       <c r="H97" t="n">
-        <v>-6.4061981784649</v>
+        <v>7.322770020719954</v>
       </c>
       <c r="I97" t="inlineStr"/>
     </row>
@@ -3671,10 +3671,10 @@
         <v>0.1129671520447325</v>
       </c>
       <c r="G98" t="n">
-        <v>0.08821045476012611</v>
+        <v>0.1043356138270119</v>
       </c>
       <c r="H98" t="n">
-        <v>-21.91495212236853</v>
+        <v>-7.640750484975227</v>
       </c>
       <c r="I98" t="inlineStr"/>
     </row>
@@ -3704,10 +3704,10 @@
         <v>0.1050362907047985</v>
       </c>
       <c r="G99" t="n">
-        <v>0.1268891523436103</v>
+        <v>0.1003824168194623</v>
       </c>
       <c r="H99" t="n">
-        <v>20.8050584156943</v>
+        <v>-4.430729468937336</v>
       </c>
       <c r="I99" t="inlineStr"/>
     </row>
@@ -3737,10 +3737,10 @@
         <v>0.02592655471171142</v>
       </c>
       <c r="G100" t="n">
-        <v>0.03279808265203391</v>
+        <v>0.03114133123651769</v>
       </c>
       <c r="H100" t="n">
-        <v>26.50382211107486</v>
+        <v>20.11365020455523</v>
       </c>
       <c r="I100" t="inlineStr"/>
     </row>
@@ -3770,10 +3770,10 @@
         <v>0.01324529942437244</v>
       </c>
       <c r="G101" t="n">
-        <v>0.01532619611162651</v>
+        <v>0.01547833007651634</v>
       </c>
       <c r="H101" t="n">
-        <v>15.71045410589246</v>
+        <v>16.85904244667312</v>
       </c>
       <c r="I101" t="inlineStr"/>
     </row>
@@ -3803,10 +3803,10 @@
         <v>0.0008523699446128174</v>
       </c>
       <c r="G102" t="n">
-        <v>0.01369643581292137</v>
+        <v>0.005739111929284343</v>
       </c>
       <c r="H102" t="n">
-        <v>1506.865176263679</v>
+        <v>573.3123294124703</v>
       </c>
       <c r="I102" t="inlineStr"/>
     </row>
@@ -3836,10 +3836,10 @@
         <v>0.01859691948750035</v>
       </c>
       <c r="G103" t="n">
-        <v>0.006493506832137709</v>
+        <v>0.004503580139150311</v>
       </c>
       <c r="H103" t="n">
-        <v>-65.082890010347</v>
+        <v>-75.78319279073436</v>
       </c>
       <c r="I103" t="inlineStr"/>
     </row>
@@ -3869,10 +3869,10 @@
         <v>0.04685964934835764</v>
       </c>
       <c r="G104" t="n">
-        <v>0.04988280602668816</v>
+        <v>0.0651112678873801</v>
       </c>
       <c r="H104" t="n">
-        <v>6.451513659131723</v>
+        <v>38.94954143454801</v>
       </c>
       <c r="I104" t="inlineStr"/>
     </row>
@@ -3902,10 +3902,10 @@
         <v>0.04445404615924812</v>
       </c>
       <c r="G105" t="n">
-        <v>0.06941885413576358</v>
+        <v>0.06654909607746826</v>
       </c>
       <c r="H105" t="n">
-        <v>56.15868550431566</v>
+        <v>49.70312452339849</v>
       </c>
       <c r="I105" t="inlineStr"/>
     </row>
@@ -3935,10 +3935,10 @@
         <v>-0.3176161960821992</v>
       </c>
       <c r="G106" t="n">
-        <v>-0.2938575583623888</v>
+        <v>-0.3162396289771221</v>
       </c>
       <c r="H106" t="n">
-        <v>7.480297923365867</v>
+        <v>0.4334058281841688</v>
       </c>
       <c r="I106" t="inlineStr"/>
     </row>
@@ -3968,10 +3968,10 @@
         <v>-0.3058580179222677</v>
       </c>
       <c r="G107" t="n">
-        <v>-0.3400629575369853</v>
+        <v>-0.3329808569123354</v>
       </c>
       <c r="H107" t="n">
-        <v>-11.18327381020648</v>
+        <v>-8.867787470250613</v>
       </c>
       <c r="I107" t="inlineStr"/>
     </row>
@@ -4001,10 +4001,10 @@
         <v>0.219976300390154</v>
       </c>
       <c r="G108" t="n">
-        <v>0.2310191579608167</v>
+        <v>0.2355750456420016</v>
       </c>
       <c r="H108" t="n">
-        <v>5.020021498259988</v>
+        <v>7.091102643412666</v>
       </c>
       <c r="I108" t="inlineStr"/>
     </row>
@@ -4034,10 +4034,10 @@
         <v>0.249283133410306</v>
       </c>
       <c r="G109" t="n">
-        <v>0.2578755130607099</v>
+        <v>0.2465714210276716</v>
       </c>
       <c r="H109" t="n">
-        <v>3.44683554513145</v>
+        <v>-1.087804194987823</v>
       </c>
       <c r="I109" t="inlineStr"/>
     </row>
@@ -4067,10 +4067,10 @@
         <v>0.003822301047072578</v>
       </c>
       <c r="G110" t="n">
-        <v>0.0302428865351965</v>
+        <v>0.005325064023242876</v>
       </c>
       <c r="H110" t="n">
-        <v>691.2219933162748</v>
+        <v>39.31566241547702</v>
       </c>
       <c r="I110" t="inlineStr"/>
     </row>
@@ -4100,10 +4100,10 @@
         <v>0.02162869347624484</v>
       </c>
       <c r="G111" t="n">
-        <v>0.04355997253240223</v>
+        <v>0.05365808542210704</v>
       </c>
       <c r="H111" t="n">
-        <v>101.3990007313428</v>
+        <v>148.0875022850577</v>
       </c>
       <c r="I111" t="inlineStr"/>
     </row>
@@ -4133,10 +4133,10 @@
         <v>0.04266279540653856</v>
       </c>
       <c r="G112" t="n">
-        <v>0.04731989298348104</v>
+        <v>0.05471120041501613</v>
       </c>
       <c r="H112" t="n">
-        <v>10.91606288937345</v>
+        <v>28.24101162070362</v>
       </c>
       <c r="I112" t="inlineStr"/>
     </row>
@@ -4166,14 +4166,14 @@
         <v>0.03369441758879654</v>
       </c>
       <c r="G113" t="n">
-        <v>0.06362050822196023</v>
+        <v>0.03814656219815089</v>
       </c>
       <c r="H113" t="n">
-        <v>88.81616829938673</v>
+        <v>13.21330038609928</v>
       </c>
       <c r="I113" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>